--- a/Analyzed/raw/data_2008.xlsx
+++ b/Analyzed/raw/data_2008.xlsx
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -619,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3">
         <v>4</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>1</v>
       </c>
       <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>2</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
       </c>
       <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>5</v>
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>우리 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B8">
@@ -962,29 +962,53 @@
       <c r="H8">
         <v>0.397</v>
       </c>
+      <c r="I8">
+        <v>32.31</v>
+      </c>
+      <c r="J8">
+        <v>1966</v>
+      </c>
+      <c r="K8">
+        <v>1092.565</v>
+      </c>
+      <c r="L8">
+        <v>504</v>
+      </c>
+      <c r="M8">
+        <v>66.81591542058901</v>
+      </c>
+      <c r="N8">
+        <v>193.5</v>
+      </c>
+      <c r="O8">
+        <v>1069.94</v>
+      </c>
+      <c r="P8">
+        <v>2751.8</v>
+      </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1042,22 +1066,22 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>7</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>6</v>
